--- a/biology/Médecine/LBP-1_(médicament)/LBP-1_(médicament).xlsx
+++ b/biology/Médecine/LBP-1_(médicament)/LBP-1_(médicament).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LBP-1_(m%C3%A9dicament)</t>
+          <t>LBP-1_(médicament)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-LBP-1 est un médicament développé à l'origine par Organon Biosciences pour le traitement de la douleur neuropathique[1],[2],[3]. Il agit comme un agoniste puissant et sélectif des récepteurs cannabinoïdes, avec une puissance élevée sur les récepteurs CB1 et CB2, mais faible pénétration de la barrière hémato-encéphalique. Cela rend la LBP-1 périphériquement sélective, et bien qu'elle soit efficace dans des modèles animaux de douleur neuropathique et d'allodynie[4].
+LBP-1 est un médicament développé à l'origine par Organon Biosciences pour le traitement de la douleur neuropathique. Il agit comme un agoniste puissant et sélectif des récepteurs cannabinoïdes, avec une puissance élevée sur les récepteurs CB1 et CB2, mais faible pénétration de la barrière hémato-encéphalique. Cela rend la LBP-1 périphériquement sélective, et bien qu'elle soit efficace dans des modèles animaux de douleur neuropathique et d'allodynie.
 </t>
         </is>
       </c>
